--- a/data_quarter/zb/国内贸易/按零售业态分限额以上消费品零售额.xlsx
+++ b/data_quarter/zb/国内贸易/按零售业态分限额以上消费品零售额.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -483,47 +483,47 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="C3" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>1.5</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>1.5</v>
       </c>
       <c r="F4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -543,7 +543,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -563,47 +563,47 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.199999999999999</v>
+        <v>-14.1</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.8</v>
+        <v>-14.4</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-16.6</v>
+        <v>-23.6</v>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-14.4</v>
+        <v>-6.8</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-23.6</v>
+        <v>-16.6</v>
       </c>
       <c r="F8" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -623,7 +623,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -643,20 +643,18 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17.1</v>
+        <v>24.6</v>
       </c>
       <c r="C11" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14.5</v>
-      </c>
+        <v>32.4</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>19.9</v>
+        <v>29.5</v>
       </c>
       <c r="F11" t="n">
         <v>6.2</v>
@@ -665,18 +663,20 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.6</v>
+        <v>17.1</v>
       </c>
       <c r="C12" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>19.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.5</v>
+      </c>
       <c r="E12" t="n">
-        <v>29.5</v>
+        <v>19.9</v>
       </c>
       <c r="F12" t="n">
         <v>6.2</v>
@@ -685,7 +685,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/data_quarter/zb/国内贸易/按零售业态分限额以上消费品零售额.xlsx
+++ b/data_quarter/zb/国内贸易/按零售业态分限额以上消费品零售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,41 +483,41 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>1.5</v>
       </c>
       <c r="F3" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="C4" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>1.5</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="5">
@@ -563,41 +563,41 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.4</v>
+        <v>-6.8</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-23.6</v>
+        <v>-16.6</v>
       </c>
       <c r="F7" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.199999999999999</v>
+        <v>-14.1</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.8</v>
+        <v>-14.4</v>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-16.6</v>
+        <v>-23.6</v>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
@@ -643,18 +643,20 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.6</v>
+        <v>17.1</v>
       </c>
       <c r="C11" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>19.8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.5</v>
+      </c>
       <c r="E11" t="n">
-        <v>29.5</v>
+        <v>19.9</v>
       </c>
       <c r="F11" t="n">
         <v>6.2</v>
@@ -663,20 +665,18 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.1</v>
+        <v>24.6</v>
       </c>
       <c r="C12" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14.5</v>
-      </c>
+        <v>32.4</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>19.9</v>
+        <v>29.5</v>
       </c>
       <c r="F12" t="n">
         <v>6.2</v>
